--- a/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs2-Notch3.xlsx
+++ b/NatmiData/natmiOut_TPM/OldD7/LR-pairs_lrc2p/Thbs2-Notch3.xlsx
@@ -537,16 +537,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>1.924015333333333</v>
+        <v>1.782436333333333</v>
       </c>
       <c r="H2">
-        <v>5.772046</v>
+        <v>5.347308999999999</v>
       </c>
       <c r="I2">
-        <v>0.009877822204539637</v>
+        <v>0.00914036392049929</v>
       </c>
       <c r="J2">
-        <v>0.009877822204539635</v>
+        <v>0.009140363920499292</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -555,28 +555,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>17.32492333333333</v>
+        <v>7.579746333333333</v>
       </c>
       <c r="N2">
-        <v>51.97477</v>
+        <v>22.739239</v>
       </c>
       <c r="O2">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="P2">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="Q2">
-        <v>33.33341814215778</v>
+        <v>13.51041526198344</v>
       </c>
       <c r="R2">
-        <v>300.00076327942</v>
+        <v>121.593737357851</v>
       </c>
       <c r="S2">
-        <v>0.00178923852337765</v>
+        <v>0.0006273166833687904</v>
       </c>
       <c r="T2">
-        <v>0.001789238523377649</v>
+        <v>0.0006273166833687906</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -599,16 +599,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>1.924015333333333</v>
+        <v>1.782436333333333</v>
       </c>
       <c r="H3">
-        <v>5.772046</v>
+        <v>5.347308999999999</v>
       </c>
       <c r="I3">
-        <v>0.009877822204539637</v>
+        <v>0.00914036392049929</v>
       </c>
       <c r="J3">
-        <v>0.009877822204539635</v>
+        <v>0.009140363920499292</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,22 +623,22 @@
         <v>19.771439</v>
       </c>
       <c r="O3">
-        <v>0.06890531753540824</v>
+        <v>0.0596740760116217</v>
       </c>
       <c r="P3">
-        <v>0.06890531753540823</v>
+        <v>0.05967407601162171</v>
       </c>
       <c r="Q3">
-        <v>12.68018393268822</v>
+        <v>11.74711041196122</v>
       </c>
       <c r="R3">
-        <v>114.121655394194</v>
+        <v>105.723993707651</v>
       </c>
       <c r="S3">
-        <v>0.0006806344755621099</v>
+        <v>0.0005454427713657592</v>
       </c>
       <c r="T3">
-        <v>0.0006806344755621096</v>
+        <v>0.0005454427713657594</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -661,16 +661,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>1.924015333333333</v>
+        <v>1.782436333333333</v>
       </c>
       <c r="H4">
-        <v>5.772046</v>
+        <v>5.347308999999999</v>
       </c>
       <c r="I4">
-        <v>0.009877822204539637</v>
+        <v>0.00914036392049929</v>
       </c>
       <c r="J4">
-        <v>0.009877822204539635</v>
+        <v>0.009140363920499292</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -679,28 +679,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>71.61884566666667</v>
+        <v>96.08192699999999</v>
       </c>
       <c r="N4">
-        <v>214.856537</v>
+        <v>288.245781</v>
       </c>
       <c r="O4">
-        <v>0.7487951638999665</v>
+        <v>0.8699822327258658</v>
       </c>
       <c r="P4">
-        <v>0.7487951638999663</v>
+        <v>0.8699822327258659</v>
       </c>
       <c r="Q4">
-        <v>137.7957572183002</v>
+        <v>171.259917661481</v>
       </c>
       <c r="R4">
-        <v>1240.161814964702</v>
+        <v>1541.339258953329</v>
       </c>
       <c r="S4">
-        <v>0.007396465496622985</v>
+        <v>0.00795195421148292</v>
       </c>
       <c r="T4">
-        <v>0.007396465496622982</v>
+        <v>0.007951954211482924</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,46 +723,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>1.924015333333333</v>
+        <v>1.782436333333333</v>
       </c>
       <c r="H5">
-        <v>5.772046</v>
+        <v>5.347308999999999</v>
       </c>
       <c r="I5">
-        <v>0.009877822204539637</v>
+        <v>0.00914036392049929</v>
       </c>
       <c r="J5">
-        <v>0.009877822204539635</v>
+        <v>0.009140363920499292</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>0.111195</v>
+        <v>0.189099</v>
       </c>
       <c r="N5">
-        <v>0.333585</v>
+        <v>0.5672970000000001</v>
       </c>
       <c r="O5">
-        <v>0.001162574982531578</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="P5">
-        <v>0.001162574982531577</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="Q5">
-        <v>0.21394088499</v>
+        <v>0.337056928197</v>
       </c>
       <c r="R5">
-        <v>1.92546796491</v>
+        <v>3.033512353773</v>
       </c>
       <c r="S5">
-        <v>1.14837089768927E-05</v>
+        <v>1.56502542818194E-05</v>
       </c>
       <c r="T5">
-        <v>1.148370897689269E-05</v>
+        <v>1.56502542818194E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,13 +788,13 @@
         <v>188.2309416666667</v>
       </c>
       <c r="H6">
-        <v>564.6928250000001</v>
+        <v>564.692825</v>
       </c>
       <c r="I6">
-        <v>0.9663705600283187</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="J6">
-        <v>0.9663705600283184</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,28 +803,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>17.32492333333333</v>
+        <v>7.579746333333333</v>
       </c>
       <c r="N6">
-        <v>51.97477</v>
+        <v>22.739239</v>
       </c>
       <c r="O6">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="P6">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="Q6">
-        <v>3261.08663333614</v>
+        <v>1426.742789917797</v>
       </c>
       <c r="R6">
-        <v>29349.77970002525</v>
+        <v>12840.68510926018</v>
       </c>
       <c r="S6">
-        <v>0.175045409611246</v>
+        <v>0.06624663547611573</v>
       </c>
       <c r="T6">
-        <v>0.1750454096112459</v>
+        <v>0.06624663547611573</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,13 +850,13 @@
         <v>188.2309416666667</v>
       </c>
       <c r="H7">
-        <v>564.6928250000001</v>
+        <v>564.692825</v>
       </c>
       <c r="I7">
-        <v>0.9663705600283187</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="J7">
-        <v>0.9663705600283184</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -871,10 +871,10 @@
         <v>19.771439</v>
       </c>
       <c r="O7">
-        <v>0.06890531753540824</v>
+        <v>0.0596740760116217</v>
       </c>
       <c r="P7">
-        <v>0.06890531753540823</v>
+        <v>0.05967407601162171</v>
       </c>
       <c r="Q7">
         <v>1240.532193691686</v>
@@ -883,10 +883,10 @@
         <v>11164.78974322518</v>
       </c>
       <c r="S7">
-        <v>0.06658807029562158</v>
+        <v>0.05760049016025813</v>
       </c>
       <c r="T7">
-        <v>0.06658807029562155</v>
+        <v>0.05760049016025814</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -912,13 +912,13 @@
         <v>188.2309416666667</v>
       </c>
       <c r="H8">
-        <v>564.6928250000001</v>
+        <v>564.692825</v>
       </c>
       <c r="I8">
-        <v>0.9663705600283187</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="J8">
-        <v>0.9663705600283184</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -927,28 +927,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>71.61884566666667</v>
+        <v>96.08192699999999</v>
       </c>
       <c r="N8">
-        <v>214.856537</v>
+        <v>288.245781</v>
       </c>
       <c r="O8">
-        <v>0.7487951638999665</v>
+        <v>0.8699822327258658</v>
       </c>
       <c r="P8">
-        <v>0.7487951638999663</v>
+        <v>0.8699822327258659</v>
       </c>
       <c r="Q8">
-        <v>13480.88276091634</v>
+        <v>18085.59159635792</v>
       </c>
       <c r="R8">
-        <v>121327.944848247</v>
+        <v>162770.3243672213</v>
       </c>
       <c r="S8">
-        <v>0.7236136018845073</v>
+        <v>0.8397516373100823</v>
       </c>
       <c r="T8">
-        <v>0.7236136018845069</v>
+        <v>0.8397516373100824</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -974,43 +974,43 @@
         <v>188.2309416666667</v>
       </c>
       <c r="H9">
-        <v>564.6928250000001</v>
+        <v>564.692825</v>
       </c>
       <c r="I9">
-        <v>0.9663705600283187</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="J9">
-        <v>0.9663705600283184</v>
+        <v>0.965251479537618</v>
       </c>
       <c r="K9">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L9">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M9">
-        <v>0.111195</v>
+        <v>0.189099</v>
       </c>
       <c r="N9">
-        <v>0.333585</v>
+        <v>0.5672970000000001</v>
       </c>
       <c r="O9">
-        <v>0.001162574982531578</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="P9">
-        <v>0.001162574982531577</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="Q9">
-        <v>20.930339558625</v>
+        <v>35.59428283822501</v>
       </c>
       <c r="R9">
-        <v>188.373056027625</v>
+        <v>320.348545544025</v>
       </c>
       <c r="S9">
-        <v>0.001123478236943953</v>
+        <v>0.001652716591161825</v>
       </c>
       <c r="T9">
-        <v>0.001123478236943953</v>
+        <v>0.001652716591161825</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1033,16 +1033,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>4.541390666666667</v>
+        <v>4.870778333333333</v>
       </c>
       <c r="H10">
-        <v>13.624172</v>
+        <v>14.612335</v>
       </c>
       <c r="I10">
-        <v>0.02331532851610455</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="J10">
-        <v>0.02331532851610454</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1051,28 +1051,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>17.32492333333333</v>
+        <v>7.579746333333333</v>
       </c>
       <c r="N10">
-        <v>51.97477</v>
+        <v>22.739239</v>
       </c>
       <c r="O10">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="P10">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="Q10">
-        <v>78.67924512671556</v>
+        <v>36.91926421256277</v>
       </c>
       <c r="R10">
-        <v>708.11320614044</v>
+        <v>332.273377913065</v>
       </c>
       <c r="S10">
-        <v>0.004223267346019614</v>
+        <v>0.001714238232440597</v>
       </c>
       <c r="T10">
-        <v>0.004223267346019612</v>
+        <v>0.001714238232440597</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1095,16 +1095,16 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>4.541390666666667</v>
+        <v>4.870778333333333</v>
       </c>
       <c r="H11">
-        <v>13.624172</v>
+        <v>14.612335</v>
       </c>
       <c r="I11">
-        <v>0.02331532851610455</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="J11">
-        <v>0.02331532851610454</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1119,22 +1119,22 @@
         <v>19.771439</v>
       </c>
       <c r="O11">
-        <v>0.06890531753540824</v>
+        <v>0.0596740760116217</v>
       </c>
       <c r="P11">
-        <v>0.06890531753540823</v>
+        <v>0.05967407601162171</v>
       </c>
       <c r="Q11">
-        <v>29.92994284705645</v>
+        <v>32.10076556667389</v>
       </c>
       <c r="R11">
-        <v>269.369485623508</v>
+        <v>288.906890100065</v>
       </c>
       <c r="S11">
-        <v>0.001606550114844543</v>
+        <v>0.001490505317445631</v>
       </c>
       <c r="T11">
-        <v>0.001606550114844542</v>
+        <v>0.001490505317445631</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1157,16 +1157,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>4.541390666666667</v>
+        <v>4.870778333333333</v>
       </c>
       <c r="H12">
-        <v>13.624172</v>
+        <v>14.612335</v>
       </c>
       <c r="I12">
-        <v>0.02331532851610455</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="J12">
-        <v>0.02331532851610454</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1175,28 +1175,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>71.61884566666667</v>
+        <v>96.08192699999999</v>
       </c>
       <c r="N12">
-        <v>214.856537</v>
+        <v>288.245781</v>
       </c>
       <c r="O12">
-        <v>0.7487951638999665</v>
+        <v>0.8699822327258658</v>
       </c>
       <c r="P12">
-        <v>0.7487951638999663</v>
+        <v>0.8699822327258659</v>
       </c>
       <c r="Q12">
-        <v>325.2491572680404</v>
+        <v>467.993768256515</v>
       </c>
       <c r="R12">
-        <v>2927.242415412364</v>
+        <v>4211.943914308634</v>
       </c>
       <c r="S12">
-        <v>0.01745840523759807</v>
+        <v>0.02172992412498498</v>
       </c>
       <c r="T12">
-        <v>0.01745840523759806</v>
+        <v>0.02172992412498498</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1219,46 +1219,46 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>4.541390666666667</v>
+        <v>4.870778333333333</v>
       </c>
       <c r="H13">
-        <v>13.624172</v>
+        <v>14.612335</v>
       </c>
       <c r="I13">
-        <v>0.02331532851610455</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="J13">
-        <v>0.02331532851610454</v>
+        <v>0.02497743437460768</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>0.111195</v>
+        <v>0.189099</v>
       </c>
       <c r="N13">
-        <v>0.333585</v>
+        <v>0.5672970000000001</v>
       </c>
       <c r="O13">
-        <v>0.001162574982531578</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="P13">
-        <v>0.001162574982531577</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="Q13">
-        <v>0.50497993518</v>
+        <v>0.921059312055</v>
       </c>
       <c r="R13">
-        <v>4.544819416619999</v>
+        <v>8.289533808494999</v>
       </c>
       <c r="S13">
-        <v>2.710581764232824E-05</v>
+        <v>4.27666997364711E-05</v>
       </c>
       <c r="T13">
-        <v>2.710581764232823E-05</v>
+        <v>4.27666997364711E-05</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1275,22 +1275,22 @@
         <v>20</v>
       </c>
       <c r="E14">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F14">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G14">
-        <v>0.08498099999999999</v>
+        <v>0.1229953333333333</v>
       </c>
       <c r="H14">
-        <v>0.254943</v>
+        <v>0.368986</v>
       </c>
       <c r="I14">
-        <v>0.000436289251037145</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="J14">
-        <v>0.0004362892510371449</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1299,28 +1299,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>17.32492333333333</v>
+        <v>7.579746333333333</v>
       </c>
       <c r="N14">
-        <v>51.97477</v>
+        <v>22.739239</v>
       </c>
       <c r="O14">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="P14">
-        <v>0.1811369435820938</v>
+        <v>0.0686314777863378</v>
       </c>
       <c r="Q14">
-        <v>1.47228930979</v>
+        <v>0.9322734268504446</v>
       </c>
       <c r="R14">
-        <v>13.25060378811</v>
+        <v>8.390460841654001</v>
       </c>
       <c r="S14">
-        <v>7.902810145058931E-05</v>
+        <v>4.328739441268806E-05</v>
       </c>
       <c r="T14">
-        <v>7.902810145058928E-05</v>
+        <v>4.328739441268806E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1337,22 +1337,22 @@
         <v>21</v>
       </c>
       <c r="E15">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F15">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G15">
-        <v>0.08498099999999999</v>
+        <v>0.1229953333333333</v>
       </c>
       <c r="H15">
-        <v>0.254943</v>
+        <v>0.368986</v>
       </c>
       <c r="I15">
-        <v>0.000436289251037145</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="J15">
-        <v>0.0004362892510371449</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,22 +1367,22 @@
         <v>19.771439</v>
       </c>
       <c r="O15">
-        <v>0.06890531753540824</v>
+        <v>0.0596740760116217</v>
       </c>
       <c r="P15">
-        <v>0.06890531753540823</v>
+        <v>0.05967407601162171</v>
       </c>
       <c r="Q15">
-        <v>0.5600655525529999</v>
+        <v>0.8105982434282223</v>
       </c>
       <c r="R15">
-        <v>5.040589972977</v>
+        <v>7.295384190854001</v>
       </c>
       <c r="S15">
-        <v>3.006264937999991E-05</v>
+        <v>3.76377625521858E-05</v>
       </c>
       <c r="T15">
-        <v>3.006264937999991E-05</v>
+        <v>3.76377625521858E-05</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1399,22 +1399,22 @@
         <v>22</v>
       </c>
       <c r="E16">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F16">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G16">
-        <v>0.08498099999999999</v>
+        <v>0.1229953333333333</v>
       </c>
       <c r="H16">
-        <v>0.254943</v>
+        <v>0.368986</v>
       </c>
       <c r="I16">
-        <v>0.000436289251037145</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="J16">
-        <v>0.0004362892510371449</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1423,28 +1423,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>71.61884566666667</v>
+        <v>96.08192699999999</v>
       </c>
       <c r="N16">
-        <v>214.856537</v>
+        <v>288.245781</v>
       </c>
       <c r="O16">
-        <v>0.7487951638999665</v>
+        <v>0.8699822327258658</v>
       </c>
       <c r="P16">
-        <v>0.7487951638999663</v>
+        <v>0.8699822327258659</v>
       </c>
       <c r="Q16">
-        <v>6.086241123599</v>
+        <v>11.817628638674</v>
       </c>
       <c r="R16">
-        <v>54.77617011239099</v>
+        <v>106.358657748066</v>
       </c>
       <c r="S16">
-        <v>0.0003266912812381526</v>
+        <v>0.0005487170793156404</v>
       </c>
       <c r="T16">
-        <v>0.0003266912812381524</v>
+        <v>0.0005487170793156405</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1461,52 +1461,52 @@
         <v>23</v>
       </c>
       <c r="E17">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F17">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G17">
-        <v>0.08498099999999999</v>
+        <v>0.1229953333333333</v>
       </c>
       <c r="H17">
-        <v>0.254943</v>
+        <v>0.368986</v>
       </c>
       <c r="I17">
-        <v>0.000436289251037145</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="J17">
-        <v>0.0004362892510371449</v>
+        <v>0.0006307221672750447</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>0.111195</v>
+        <v>0.189099</v>
       </c>
       <c r="N17">
-        <v>0.333585</v>
+        <v>0.5672970000000001</v>
       </c>
       <c r="O17">
-        <v>0.001162574982531578</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="P17">
-        <v>0.001162574982531577</v>
+        <v>0.001712213476174646</v>
       </c>
       <c r="Q17">
-        <v>0.009449462294999997</v>
+        <v>0.023258294538</v>
       </c>
       <c r="R17">
-        <v>0.08504516065499998</v>
+        <v>0.209324650842</v>
       </c>
       <c r="S17">
-        <v>5.072189684032239E-07</v>
+        <v>1.079930994530411E-06</v>
       </c>
       <c r="T17">
-        <v>5.072189684032238E-07</v>
+        <v>1.079930994530411E-06</v>
       </c>
     </row>
   </sheetData>
